--- a/grupo1_notas.xlsx
+++ b/grupo1_notas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terra/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3A8E781-676B-7442-AFC6-7230A16F1D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E310820-D1CD-E74B-9B86-51100032AEA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{7A914FD5-7F0B-4F41-9884-1E0A488E24E2}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="19620" xr2:uid="{7A914FD5-7F0B-4F41-9884-1E0A488E24E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,51 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>TP1</t>
+  </si>
+  <si>
+    <t>TP2</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>TP3</t>
+  </si>
+  <si>
+    <t>TP4</t>
+  </si>
+  <si>
+    <t>Comentários</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>ANDREW E GABRIEL AMORIM</t>
+  </si>
+  <si>
+    <t>AEC para herança e nomenclatura (andrew e gabriel apresentou)
+- boa contextualização
+- boa explicação de ambuiguidade
+- boa explicação de diamante
+- padrões de nomenclatura ok.
+- Typo: CAPITALIZED
+- AntLR4 + Python
+- Excelente ambos apresentarem, mas o Gabriel tinha que assistir antes o do Andrew, pois repetiu muito.
+- microfone Gabriel ruim. Não entendi algumas palavras. Muito ruído.
+- código tem *várias* oportunidades de extract method, não? Bem "linguição".
+- Falta um fechamento da apresentação. Final abrupto.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,13 +85,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,14 +150,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -380,12 +505,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C604435-CF16-A64E-9760-CBF5D0FEE759}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10">
+        <f>SUM(C4:C999)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="7"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="325" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="148" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="14"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/grupo1_notas.xlsx
+++ b/grupo1_notas.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terra/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terra/Dropbox/aulas/UFLA/2020_2/arqsw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E310820-D1CD-E74B-9B86-51100032AEA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80259C67-DE94-F740-A9DE-90021A8CFE51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="19620" xr2:uid="{7A914FD5-7F0B-4F41-9884-1E0A488E24E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -508,7 +508,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,7 +560,9 @@
         <v>1</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="121" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">

--- a/grupo1_notas.xlsx
+++ b/grupo1_notas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terra/Dropbox/aulas/UFLA/2020_2/arqsw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80259C67-DE94-F740-A9DE-90021A8CFE51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CC2FBD-FEE3-384A-9570-39517EFE925B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="19620" xr2:uid="{7A914FD5-7F0B-4F41-9884-1E0A488E24E2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="19620" xr2:uid="{7A914FD5-7F0B-4F41-9884-1E0A488E24E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TP1</t>
   </si>
@@ -72,12 +72,31 @@
 - código tem *várias* oportunidades de extract method, não? Bem "linguição".
 - Falta um fechamento da apresentação. Final abrupto.</t>
   </si>
+  <si>
+    <t>*Reavaliado</t>
+  </si>
+  <si>
+    <t>Implementação do LCOM1 (os dois apresentaram)
+- Explicação do LCOM1 podia ser mais rápida, já que foi a única métrica que expliquei em sala de aula.
+- Zona de conforto, fez a única métrica que expliquei.
+- Bom exemplo. Mostrou que entendeu.
+- Usou listener</t>
+  </si>
+  <si>
+    <t>Move Method para feature envy
+- Zona de conforto, foco no que eu falei em sala de aula.
+- Explicação "bacana" de move method.
+- Como sugeriu o move method ficou meio fraca.
+- Usou listener
+- ferramenta fraca, podia ser bem melhor e o exemplo podia ser maior (em termos de código).
+- Legal apontar as dificuldades.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,6 +123,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -190,6 +216,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C604435-CF16-A64E-9760-CBF5D0FEE759}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,25 +548,25 @@
     <col min="3" max="3" width="15.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="10">
         <f>SUM(C4:C999)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="7"/>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -544,7 +574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="325" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="325" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -555,23 +585,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="148" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+        <f>(0+9)/2</f>
+        <v>4.5</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:3" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>

--- a/grupo1_notas.xlsx
+++ b/grupo1_notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terra/Dropbox/aulas/UFLA/2020_2/arqsw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CC2FBD-FEE3-384A-9570-39517EFE925B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52386982-4A84-5042-98FC-CDEBE95637E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="19620" xr2:uid="{7A914FD5-7F0B-4F41-9884-1E0A488E24E2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>TP1</t>
   </si>
@@ -90,6 +90,18 @@
 - Usou listener
 - ferramenta fraca, podia ser bem melhor e o exemplo podia ser maior (em termos de código).
 - Legal apontar as dificuldades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Identificar erros no template method
+- python + antlr
+- boa explicação, custei para entender um pouco o exemplo.
+- Entendi o que o grupo propôs a validar
+- Fez com listener.
+- apontou limitações e dificuldades.
+- saiu da zona de conforto, aprendeu um novo padrão e mandaram ver.</t>
   </si>
 </sst>
 </file>
@@ -535,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C604435-CF16-A64E-9760-CBF5D0FEE759}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,7 +571,7 @@
       </c>
       <c r="C2" s="10">
         <f>SUM(C4:C999)</f>
-        <v>22.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -611,12 +623,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/grupo1_notas.xlsx
+++ b/grupo1_notas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terra/Dropbox/aulas/UFLA/2020_2/arqsw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52386982-4A84-5042-98FC-CDEBE95637E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80C8EE8-17FC-9843-A04B-979FBD6481A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="19620" xr2:uid="{7A914FD5-7F0B-4F41-9884-1E0A488E24E2}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="19500" xr2:uid="{7A914FD5-7F0B-4F41-9884-1E0A488E24E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>TP1</t>
   </si>
@@ -92,9 +92,6 @@
 - Legal apontar as dificuldades.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Identificar erros no template method
 - python + antlr
 - boa explicação, custei para entender um pouco o exemplo.
@@ -102,6 +99,16 @@
 - Fez com listener.
 - apontou limitações e dificuldades.
 - saiu da zona de conforto, aprendeu um novo padrão e mandaram ver.</t>
+  </si>
+  <si>
+    <t>TP5</t>
+  </si>
+  <si>
+    <t>Identificar erro no padrão MTV (os dois apresentaram)
+- Framework Jungle para Python
+- Verifica falhas na implementação
+- Ponto positivo: focaram em um padrão que não vimos em sala. Apontou limitações.
+- Ponto negativo: a explicação do que foi feito ficou fraca, pois mais embassamento do MTV e talvez um toy example de uma aplicação simples devia ter sido dada. Pois ainda tinham 2 minutos.</t>
   </si>
 </sst>
 </file>
@@ -550,7 +557,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,7 +578,7 @@
       </c>
       <c r="C2" s="10">
         <f>SUM(C4:C999)</f>
-        <v>32.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -628,15 +635,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>12</v>
+    <row r="9" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="13">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/grupo1_notas.xlsx
+++ b/grupo1_notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terra/Dropbox/aulas/UFLA/2020_2/arqsw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80C8EE8-17FC-9843-A04B-979FBD6481A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AF3A21-3046-9142-B047-E80F645BC932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="19500" xr2:uid="{7A914FD5-7F0B-4F41-9884-1E0A488E24E2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>TP1</t>
   </si>
@@ -109,6 +109,9 @@
 - Verifica falhas na implementação
 - Ponto positivo: focaram em um padrão que não vimos em sala. Apontou limitações.
 - Ponto negativo: a explicação do que foi feito ficou fraca, pois mais embassamento do MTV e talvez um toy example de uma aplicação simples devia ter sido dada. Pois ainda tinham 2 minutos.</t>
+  </si>
+  <si>
+    <t>vale 7.5 a partir de agora</t>
   </si>
 </sst>
 </file>
@@ -556,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C604435-CF16-A64E-9760-CBF5D0FEE759}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,7 +581,7 @@
       </c>
       <c r="C2" s="10">
         <f>SUM(C4:C999)</f>
-        <v>39.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -649,7 +652,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="13">
-        <v>7</v>
+        <v>5.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/grupo1_notas.xlsx
+++ b/grupo1_notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terra/Dropbox/aulas/UFLA/2020_2/arqsw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AF3A21-3046-9142-B047-E80F645BC932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156B6208-7645-254E-8EBF-6EAA05827C70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="19500" xr2:uid="{7A914FD5-7F0B-4F41-9884-1E0A488E24E2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TP1</t>
   </si>
@@ -112,6 +112,20 @@
   </si>
   <si>
     <t>vale 7.5 a partir de agora</t>
+  </si>
+  <si>
+    <t>TP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Remodularização (os dois apresentaram)
+Django monolítico para Restful (ideia desafiadora, parabéns)
+MTV para Restful
+AST, Astor
+- Fizeram um exemplo simples mas que ilustra o processo
+- Apontou as limitações. Importante!</t>
   </si>
 </sst>
 </file>
@@ -557,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C604435-CF16-A64E-9760-CBF5D0FEE759}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,8 +594,8 @@
         <v>6</v>
       </c>
       <c r="C2" s="10">
-        <f>SUM(C4:C999)</f>
-        <v>38</v>
+        <f>SUM(C4:C998)</f>
+        <v>45.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -656,6 +670,22 @@
       </c>
       <c r="D9" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/grupo1_notas.xlsx
+++ b/grupo1_notas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terra/Dropbox/aulas/UFLA/2020_2/arqsw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156B6208-7645-254E-8EBF-6EAA05827C70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB84E78D-409F-4F4D-84FC-476C0A59FBC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="19500" xr2:uid="{7A914FD5-7F0B-4F41-9884-1E0A488E24E2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>TP1</t>
   </si>
@@ -117,15 +117,42 @@
     <t>TP6</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Remodularização (os dois apresentaram)
 Django monolítico para Restful (ideia desafiadora, parabéns)
 MTV para Restful
 AST, Astor
 - Fizeram um exemplo simples mas que ilustra o processo
 - Apontou as limitações. Importante!</t>
+  </si>
+  <si>
+    <t>TP7</t>
+  </si>
+  <si>
+    <t>TP8</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Clusterização em projetos Spring Boot
+- anlr4 a partir de python
+- sairam do Python e foram para o java.
+- KNN modificado (qual a modificação?)
+- Não entendi bem o que faz conceitualmente. Isso tem que melhorar nos próximos TPs.
+- clusterização a partir de dados principais (importações, etc.)
+- Perdeu muito tempo com explicação do código, mas faltou entender o que de fato está fazendo. No final falou repository, service, controller, model...
+- Limitação forte do @Entity, mas entendo.</t>
+  </si>
+  <si>
+    <t>TP9</t>
+  </si>
+  <si>
+    <t>Descobridor de arquitetura MVC e MVP
+- está mais para padrão arquitetural do que para descoberta arquitetural.
+- Antlr4 + java
+- Ficou muito aquém do que se espera de "descoberta arquitetural". Na verdade, muito próximo ao TP8 de vocês focado em padrão arquitetural. Obsersem que descoberta arquitetural, você quer ter uma visão global de como a aplicação funciona e não apenas enquadrar em um padrão arquitetural.
+- Lembrar de não focar tanto no código, mas na explicação teórica do que você faz. Nesse eu entendi, mas no TP8 ficou complicado.
+- Bom apontar limitações e dificuldades.</t>
   </si>
 </sst>
 </file>
@@ -216,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -256,6 +283,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C604435-CF16-A64E-9760-CBF5D0FEE759}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +625,7 @@
       </c>
       <c r="C2" s="10">
         <f>SUM(C4:C998)</f>
-        <v>45.5</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -677,15 +707,47 @@
         <v>16</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="14">
         <v>7.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="9" t="s">
-        <v>17</v>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="14">
+        <f>(0+6)/2</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="13">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/grupo1_notas.xlsx
+++ b/grupo1_notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terra/Dropbox/aulas/UFLA/2020_2/arqsw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB84E78D-409F-4F4D-84FC-476C0A59FBC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96B9B50-C36E-F147-9EA4-79C135674921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="19500" xr2:uid="{7A914FD5-7F0B-4F41-9884-1E0A488E24E2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>TP1</t>
   </si>
@@ -153,6 +153,18 @@
 - Ficou muito aquém do que se espera de "descoberta arquitetural". Na verdade, muito próximo ao TP8 de vocês focado em padrão arquitetural. Obsersem que descoberta arquitetural, você quer ter uma visão global de como a aplicação funciona e não apenas enquadrar em um padrão arquitetural.
 - Lembrar de não focar tanto no código, mas na explicação teórica do que você faz. Nesse eu entendi, mas no TP8 ficou complicado.
 - Bom apontar limitações e dificuldades.</t>
+  </si>
+  <si>
+    <t>TP10</t>
+  </si>
+  <si>
+    <t>Conformidade arquitetural (dois apresentaram)
+- Analisador de conf. arq. com ANTLR
+- Solução que especifica as regras JSON
+- Gera DSM e relatório
+- Não entendi a especificação de regras no 1o momento, mas depois do 4:31 sim.
+- A especificação de regras tem espaço para melhora (coisa futura).
+- DSM está zero legível, ficou fraca.</t>
   </si>
 </sst>
 </file>
@@ -601,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C604435-CF16-A64E-9760-CBF5D0FEE759}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,7 +637,7 @@
       </c>
       <c r="C2" s="10">
         <f>SUM(C4:C998)</f>
-        <v>52.5</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -748,6 +760,17 @@
       </c>
       <c r="C13" s="13">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="14">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/grupo1_notas.xlsx
+++ b/grupo1_notas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terra/Dropbox/aulas/UFLA/2020_2/arqsw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96B9B50-C36E-F147-9EA4-79C135674921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD5A108-B9FB-8D4B-8D63-E97183037769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="19500" xr2:uid="{7A914FD5-7F0B-4F41-9884-1E0A488E24E2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="19500" xr2:uid="{7A914FD5-7F0B-4F41-9884-1E0A488E24E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>TP1</t>
   </si>
@@ -165,6 +165,17 @@
 - Não entendi a especificação de regras no 1o momento, mas depois do 4:31 sim.
 - A especificação de regras tem espaço para melhora (coisa futura).
 - DSM está zero legível, ficou fraca.</t>
+  </si>
+  <si>
+    <t>TP11</t>
+  </si>
+  <si>
+    <t>Visualização arquitetural (dois apresentaram)
+- antlr4, json, java, mayavi, networkx
+- análise coleta tudo em json e plotar
+- grafo, mas com cor para cada componente.
+- Fizeram algo buscando um code city.
+- Atividade desempenhada de forma como esperada.</t>
   </si>
 </sst>
 </file>
@@ -613,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C604435-CF16-A64E-9760-CBF5D0FEE759}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,7 +648,7 @@
       </c>
       <c r="C2" s="10">
         <f>SUM(C4:C998)</f>
-        <v>59.5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -771,6 +782,17 @@
       </c>
       <c r="C14" s="14">
         <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="13">
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/grupo1_notas.xlsx
+++ b/grupo1_notas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terra/Dropbox/aulas/UFLA/2020_2/arqsw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD5A108-B9FB-8D4B-8D63-E97183037769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAB8676-2A45-9F42-92E2-7A8293078036}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="19500" xr2:uid="{7A914FD5-7F0B-4F41-9884-1E0A488E24E2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="15900" xr2:uid="{7A914FD5-7F0B-4F41-9884-1E0A488E24E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>TP1</t>
   </si>
@@ -176,6 +176,18 @@
 - grafo, mas com cor para cada componente.
 - Fizeram algo buscando um code city.
 - Atividade desempenhada de forma como esperada.</t>
+  </si>
+  <si>
+    <t>TP12</t>
+  </si>
+  <si>
+    <t>Reparação arquitetural (dois apresentaram)
+- antlr + json + dsm + violações *e recomendações*
+- recomenda mover pela similaridade
+- recomenda estender para a correta
+- Limitações (override dos pais)
+- Dificuldades (pegar as dependências)
+- Explicação do Gabriel foi muito rápida, não tava claro como é feito o cálculo de similaridade.</t>
   </si>
 </sst>
 </file>
@@ -624,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C604435-CF16-A64E-9760-CBF5D0FEE759}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,7 +660,7 @@
       </c>
       <c r="C2" s="10">
         <f>SUM(C4:C998)</f>
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -793,6 +805,17 @@
       </c>
       <c r="C15" s="13">
         <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="14">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
